--- a/sujets/chu/Axe_2/results/df_composant_medical_emissions_carbones.xlsx
+++ b/sujets/chu/Axe_2/results/df_composant_medical_emissions_carbones.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
         <v>27.4</v>
       </c>
       <c r="C3" t="n">
-        <v>77816.60555309088</v>
+        <v>64464.719441583</v>
       </c>
     </row>
     <row r="4">
@@ -486,7 +486,7 @@
         <v>46</v>
       </c>
       <c r="C4" t="n">
-        <v>122381.6509272169</v>
+        <v>89995.18322433319</v>
       </c>
     </row>
     <row r="5">
@@ -499,7 +499,7 @@
         <v>137.3</v>
       </c>
       <c r="C5" t="n">
-        <v>214906.4011192255</v>
+        <v>289323.5693210656</v>
       </c>
     </row>
     <row r="6">
@@ -512,7 +512,7 @@
         <v>369.2</v>
       </c>
       <c r="C6" t="n">
-        <v>244879.1607592665</v>
+        <v>622198.6528684805</v>
       </c>
     </row>
     <row r="7">
@@ -525,7 +525,7 @@
         <v>14.8</v>
       </c>
       <c r="C7" t="n">
-        <v>31286.60120700644</v>
+        <v>6624.749944037159</v>
       </c>
     </row>
     <row r="8">
@@ -538,7 +538,7 @@
         <v>18.5</v>
       </c>
       <c r="C8" t="n">
-        <v>18989.7281493073</v>
+        <v>14401.59478058594</v>
       </c>
     </row>
     <row r="9">
@@ -551,7 +551,7 @@
         <v>45.9</v>
       </c>
       <c r="C9" t="n">
-        <v>3456.986321578813</v>
+        <v>121507.9414139419</v>
       </c>
     </row>
     <row r="10">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="C10" t="n">
-        <v>34080.26520573323</v>
+        <v>28232.72384302905</v>
       </c>
     </row>
     <row r="11">
@@ -577,7 +577,7 @@
         <v>21</v>
       </c>
       <c r="C11" t="n">
-        <v>55869.88411894684</v>
+        <v>41084.75755893471</v>
       </c>
     </row>
     <row r="12">
@@ -590,7 +590,7 @@
         <v>62</v>
       </c>
       <c r="C12" t="n">
-        <v>97044.40545806251</v>
+        <v>130648.6620386458</v>
       </c>
     </row>
     <row r="13">
@@ -603,7 +603,7 @@
         <v>174</v>
       </c>
       <c r="C13" t="n">
-        <v>115408.9219179642</v>
+        <v>293235.5514602265</v>
       </c>
     </row>
     <row r="14">
@@ -616,7 +616,7 @@
         <v>7</v>
       </c>
       <c r="C14" t="n">
-        <v>14797.71678709764</v>
+        <v>3133.327676233791</v>
       </c>
     </row>
     <row r="15">
@@ -629,7 +629,7 @@
         <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>9238.246126690035</v>
+        <v>7006.181244609375</v>
       </c>
     </row>
     <row r="16">
@@ -642,7 +642,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="n">
-        <v>1205.049698153834</v>
+        <v>42355.70942533923</v>
       </c>
     </row>
     <row r="17">
@@ -655,7 +655,7 @@
         <v>3.9</v>
       </c>
       <c r="C17" t="n">
-        <v>11076.0861918633</v>
+        <v>9175.635248984441</v>
       </c>
     </row>
     <row r="18">
@@ -668,7 +668,7 @@
         <v>7</v>
       </c>
       <c r="C18" t="n">
-        <v>18623.29470631561</v>
+        <v>13694.91918631157</v>
       </c>
     </row>
     <row r="19">
@@ -681,7 +681,7 @@
         <v>5.3</v>
       </c>
       <c r="C19" t="n">
-        <v>8295.731434318246</v>
+        <v>11168.35336781972</v>
       </c>
     </row>
     <row r="20">
@@ -694,7 +694,7 @@
         <v>4.3</v>
       </c>
       <c r="C20" t="n">
-        <v>2852.059564639345</v>
+        <v>7246.625697005597</v>
       </c>
     </row>
     <row r="21">
@@ -746,7 +746,7 @@
         <v>0.0034</v>
       </c>
       <c r="C24" t="n">
-        <v>9.656075141624417</v>
+        <v>7.999271755524898</v>
       </c>
     </row>
     <row r="25">
@@ -759,7 +759,7 @@
         <v>0.0064</v>
       </c>
       <c r="C25" t="n">
-        <v>17.02701230291713</v>
+        <v>12.52106897034201</v>
       </c>
     </row>
     <row r="26">
@@ -772,7 +772,7 @@
         <v>0.0186</v>
       </c>
       <c r="C26" t="n">
-        <v>29.11332163741875</v>
+        <v>39.19459861159372</v>
       </c>
     </row>
     <row r="27">
@@ -785,7 +785,7 @@
         <v>0.0522</v>
       </c>
       <c r="C27" t="n">
-        <v>34.62267657538926</v>
+        <v>87.97066543806794</v>
       </c>
     </row>
     <row r="28">
@@ -798,7 +798,7 @@
         <v>0.002</v>
       </c>
       <c r="C28" t="n">
-        <v>4.227919082027897</v>
+        <v>0.8952364789239404</v>
       </c>
     </row>
     <row r="29">
@@ -811,7 +811,7 @@
         <v>0.0028</v>
       </c>
       <c r="C29" t="n">
-        <v>2.874121017192456</v>
+        <v>2.17970083165625</v>
       </c>
     </row>
     <row r="30">
@@ -824,7 +824,7 @@
         <v>0.0048</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3615149094461503</v>
+        <v>12.70671282760177</v>
       </c>
     </row>
     <row r="31">
@@ -837,7 +837,7 @@
         <v>8.6</v>
       </c>
       <c r="C31" t="n">
-        <v>24424.19006410882</v>
+        <v>20233.45208750415</v>
       </c>
     </row>
     <row r="32">
@@ -850,7 +850,7 @@
         <v>15.4</v>
       </c>
       <c r="C32" t="n">
-        <v>40971.24835389435</v>
+        <v>30128.82220988546</v>
       </c>
     </row>
     <row r="33">
@@ -863,7 +863,7 @@
         <v>46.1</v>
       </c>
       <c r="C33" t="n">
-        <v>72157.21115510777</v>
+        <v>97143.6019351866</v>
       </c>
     </row>
     <row r="34">
@@ -876,7 +876,7 @@
         <v>129.1</v>
       </c>
       <c r="C34" t="n">
-        <v>85628.11390579987</v>
+        <v>217567.297089168</v>
       </c>
     </row>
     <row r="35">
@@ -889,7 +889,7 @@
         <v>4.9</v>
       </c>
       <c r="C35" t="n">
-        <v>10358.40175096835</v>
+        <v>2193.329373363654</v>
       </c>
     </row>
     <row r="36">
@@ -902,7 +902,7 @@
         <v>6.8</v>
       </c>
       <c r="C36" t="n">
-        <v>6980.008184610248</v>
+        <v>5293.55916259375</v>
       </c>
     </row>
     <row r="37">
@@ -915,7 +915,7 @@
         <v>11.7</v>
       </c>
       <c r="C37" t="n">
-        <v>881.1925917749915</v>
+        <v>30972.61251727931</v>
       </c>
     </row>
     <row r="38">
@@ -928,7 +928,7 @@
         <v>0.2762</v>
       </c>
       <c r="C38" t="n">
-        <v>719.8819132182933</v>
+        <v>217.8876420906238</v>
       </c>
     </row>
     <row r="39">
@@ -941,7 +941,7 @@
         <v>0.2103999999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>457.8437510151911</v>
+        <v>342.9508021781672</v>
       </c>
     </row>
     <row r="40">
@@ -954,7 +954,7 @@
         <v>0.1641</v>
       </c>
       <c r="C40" t="n">
-        <v>436.6936080024251</v>
+        <v>393.9372929845302</v>
       </c>
     </row>
     <row r="41">
@@ -967,7 +967,7 @@
         <v>0.1641</v>
       </c>
       <c r="C41" t="n">
-        <v>155.0267711220681</v>
+        <v>309.2587978318315</v>
       </c>
     </row>
     <row r="42">
@@ -980,7 +980,7 @@
         <v>0.1296</v>
       </c>
       <c r="C42" t="n">
-        <v>179.9950170100611</v>
+        <v>380.9930491272154</v>
       </c>
     </row>
     <row r="43">
@@ -993,7 +993,7 @@
         <v>0.0032902232951863</v>
       </c>
       <c r="C43" t="n">
-        <v>2.989759381063386</v>
+        <v>4.797980541847442</v>
       </c>
     </row>
     <row r="44">
@@ -1006,7 +1006,7 @@
         <v>0.007494</v>
       </c>
       <c r="C44" t="n">
-        <v>14.00028861380528</v>
+        <v>8.927034510472183</v>
       </c>
     </row>
     <row r="45">
@@ -1032,7 +1032,7 @@
         <v>2.7</v>
       </c>
       <c r="C46" t="n">
-        <v>94.35835573121913</v>
+        <v>2837.684204464122</v>
       </c>
     </row>
     <row r="47">
@@ -1045,7 +1045,7 @@
         <v>6.774931256e-08</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0001448760885063184</v>
+        <v>5.33987065821339e-05</v>
       </c>
     </row>
     <row r="48">
@@ -1058,7 +1058,7 @@
         <v>5603536854382.979</v>
       </c>
       <c r="C48" t="n">
-        <v>1713457773289852</v>
+        <v>5276365358858705</v>
       </c>
     </row>
     <row r="49">
@@ -1071,7 +1071,7 @@
         <v>8673080617813.952</v>
       </c>
       <c r="C49" t="n">
-        <v>7888862572738008</v>
+        <v>2.199011349522846e+16</v>
       </c>
     </row>
     <row r="50">
@@ -1084,7 +1084,7 @@
         <v>643405447189.8734</v>
       </c>
       <c r="C50" t="n">
-        <v>1700755439833254</v>
+        <v>1452591586769987</v>
       </c>
     </row>
     <row r="51">
@@ -1097,7 +1097,7 @@
         <v>345772288789.4737</v>
       </c>
       <c r="C51" t="n">
-        <v>795406219213262.9</v>
+        <v>1009174472451302</v>
       </c>
     </row>
     <row r="52">
@@ -1110,7 +1110,7 @@
         <v>3317185026491.028</v>
       </c>
       <c r="C52" t="n">
-        <v>4890199738804342</v>
+        <v>4477797944457765</v>
       </c>
     </row>
     <row r="53">
@@ -1123,7 +1123,7 @@
         <v>138420214277.7778</v>
       </c>
       <c r="C53" t="n">
-        <v>272759216066833.6</v>
+        <v>378282831937988.7</v>
       </c>
     </row>
     <row r="54">
@@ -1136,7 +1136,7 @@
         <v>90749289022.09944</v>
       </c>
       <c r="C54" t="n">
-        <v>180888133085406.5</v>
+        <v>201427973078121.3</v>
       </c>
     </row>
     <row r="55">
@@ -1149,7 +1149,7 @@
         <v>8924919956257.828</v>
       </c>
       <c r="C55" t="n">
-        <v>7617917734799454</v>
+        <v>2.213211478247768e+16</v>
       </c>
     </row>
     <row r="56">
@@ -1162,7 +1162,7 @@
         <v>116698000</v>
       </c>
       <c r="C56" t="n">
-        <v>163868854384.7475</v>
+        <v>62705810321.15113</v>
       </c>
     </row>
     <row r="57">
@@ -1175,7 +1175,7 @@
         <v>1712832763670.455</v>
       </c>
       <c r="C57" t="n">
-        <v>1108900364914816</v>
+        <v>3588087938996452</v>
       </c>
     </row>
     <row r="58">
@@ -1188,7 +1188,7 @@
         <v>56076211192.30769</v>
       </c>
       <c r="C58" t="n">
-        <v>61849304635146.59</v>
+        <v>79138855672476.8</v>
       </c>
     </row>
     <row r="59">
@@ -1201,7 +1201,7 @@
         <v>114643014000</v>
       </c>
       <c r="C59" t="n">
-        <v>132950460714891.4</v>
+        <v>113965544996210</v>
       </c>
     </row>
     <row r="60">
@@ -1214,7 +1214,7 @@
         <v>3.1507026</v>
       </c>
       <c r="C60" t="n">
-        <v>4173.521033928082</v>
+        <v>5524.621442102639</v>
       </c>
     </row>
     <row r="61">
@@ -1227,7 +1227,7 @@
         <v>126.8637776578521</v>
       </c>
       <c r="C61" t="n">
-        <v>60451.29585853683</v>
+        <v>314905.9797976647</v>
       </c>
     </row>
     <row r="62">
@@ -1240,7 +1240,7 @@
         <v>10189.63163934426</v>
       </c>
       <c r="C62" t="n">
-        <v>1480952.179407739</v>
+        <v>2894188.32704713</v>
       </c>
     </row>
     <row r="63">
@@ -1253,7 +1253,7 @@
         <v>87.66233773584906</v>
       </c>
       <c r="C63" t="n">
-        <v>3164.535983072916</v>
+        <v>151743.2442733605</v>
       </c>
     </row>
     <row r="64">
@@ -1266,7 +1266,7 @@
         <v>450.1482307692308</v>
       </c>
       <c r="C64" t="n">
-        <v>1320656.916771691</v>
+        <v>195280.1416293994</v>
       </c>
     </row>
     <row r="65">
@@ -1279,7 +1279,7 @@
         <v>1.350644029130473</v>
       </c>
       <c r="C65" t="n">
-        <v>842.2074774203353</v>
+        <v>636.245944369909</v>
       </c>
     </row>
     <row r="66">
@@ -1292,7 +1292,7 @@
         <v>1.800168009522066</v>
       </c>
       <c r="C66" t="n">
-        <v>1571.935287774359</v>
+        <v>4434.015938407597</v>
       </c>
     </row>
     <row r="67">
@@ -1305,7 +1305,7 @@
         <v>0.9014682936587318</v>
       </c>
       <c r="C67" t="n">
-        <v>1736.636087890928</v>
+        <v>209.6788821731523</v>
       </c>
     </row>
     <row r="68">
@@ -1318,7 +1318,7 @@
         <v>2522.79105</v>
       </c>
       <c r="C68" t="n">
-        <v>4946409.670525345</v>
+        <v>5655455.832087131</v>
       </c>
     </row>
     <row r="69">
@@ -1331,7 +1331,7 @@
         <v>891.9358959537572</v>
       </c>
       <c r="C69" t="n">
-        <v>1615556.756629428</v>
+        <v>1077146.506196546</v>
       </c>
     </row>
     <row r="70">
@@ -1344,7 +1344,7 @@
         <v>180.0426206896552</v>
       </c>
       <c r="C70" t="n">
-        <v>188298.8207050377</v>
+        <v>324017.3440538554</v>
       </c>
     </row>
     <row r="71">
@@ -1357,7 +1357,7 @@
         <v>7.200405538497191</v>
       </c>
       <c r="C71" t="n">
-        <v>15199.29484345021</v>
+        <v>17495.7708482492</v>
       </c>
     </row>
     <row r="72">
@@ -1370,7 +1370,20 @@
         <v>6.302769811320755</v>
       </c>
       <c r="C72" t="n">
-        <v>13654.59637657739</v>
+        <v>1749.970579512134</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>complement alimentaire</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="C73" t="n">
+        <v>23100</v>
       </c>
     </row>
   </sheetData>
